--- a/01_設計書/設計書.xlsx
+++ b/01_設計書/設計書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\IdeaProjects\game\01_設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A74DC76-8E36-45F8-BE3A-36924800F33A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEDB3DD-3E5D-4BA0-B4AC-B373384D1D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -782,7 +782,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -870,7 +870,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
@@ -884,7 +884,6 @@
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1665,7 +1664,6 @@
       <c r="E5" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="73"/>
       <c r="G5" s="54"/>
       <c r="H5" s="62"/>
       <c r="I5" s="62"/>
@@ -1681,7 +1679,6 @@
       <c r="E6" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="73"/>
       <c r="G6" s="54"/>
       <c r="H6" s="62"/>
       <c r="I6" s="62"/>
@@ -1697,7 +1694,6 @@
       <c r="E7" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="73"/>
       <c r="G7" s="54"/>
       <c r="H7" s="62"/>
       <c r="I7" s="62"/>
@@ -1713,7 +1709,6 @@
       <c r="E8" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="73"/>
       <c r="G8" s="54"/>
       <c r="H8" s="62"/>
       <c r="I8" s="62"/>
@@ -1727,7 +1722,6 @@
       <c r="C9" s="47"/>
       <c r="D9" s="48"/>
       <c r="E9" s="53"/>
-      <c r="F9" s="73"/>
       <c r="G9" s="54"/>
       <c r="H9" s="62"/>
       <c r="I9" s="62"/>
@@ -1741,7 +1735,6 @@
       <c r="C10" s="47"/>
       <c r="D10" s="48"/>
       <c r="E10" s="53"/>
-      <c r="F10" s="73"/>
       <c r="G10" s="54"/>
       <c r="H10" s="62"/>
       <c r="I10" s="62"/>
@@ -1755,7 +1748,6 @@
       <c r="C11" s="47"/>
       <c r="D11" s="48"/>
       <c r="E11" s="53"/>
-      <c r="F11" s="73"/>
       <c r="G11" s="54"/>
       <c r="H11" s="62"/>
       <c r="I11" s="62"/>
@@ -1769,7 +1761,6 @@
       <c r="C12" s="47"/>
       <c r="D12" s="48"/>
       <c r="E12" s="53"/>
-      <c r="F12" s="73"/>
       <c r="G12" s="54"/>
       <c r="H12" s="62"/>
       <c r="I12" s="62"/>
@@ -1783,7 +1774,6 @@
       <c r="C13" s="47"/>
       <c r="D13" s="48"/>
       <c r="E13" s="53"/>
-      <c r="F13" s="73"/>
       <c r="G13" s="54"/>
       <c r="H13" s="62"/>
       <c r="I13" s="62"/>
@@ -1797,7 +1787,6 @@
       <c r="C14" s="47"/>
       <c r="D14" s="48"/>
       <c r="E14" s="53"/>
-      <c r="F14" s="73"/>
       <c r="G14" s="54"/>
       <c r="H14" s="62"/>
       <c r="I14" s="62"/>
@@ -1811,7 +1800,7 @@
       <c r="C15" s="49"/>
       <c r="D15" s="50"/>
       <c r="E15" s="55"/>
-      <c r="F15" s="74"/>
+      <c r="F15" s="73"/>
       <c r="G15" s="56"/>
       <c r="H15" s="64"/>
       <c r="I15" s="64"/>
@@ -1848,7 +1837,6 @@
       <c r="E17" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="73"/>
       <c r="G17" s="54"/>
       <c r="H17" s="62"/>
       <c r="I17" s="62"/>
@@ -1864,7 +1852,6 @@
       <c r="E18" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="73"/>
       <c r="G18" s="54"/>
       <c r="H18" s="62"/>
       <c r="I18" s="62"/>
@@ -1880,7 +1867,6 @@
       <c r="E19" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="73"/>
       <c r="G19" s="54"/>
       <c r="H19" s="62"/>
       <c r="I19" s="62"/>
@@ -1896,7 +1882,6 @@
       <c r="E20" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="73"/>
       <c r="G20" s="54"/>
       <c r="H20" s="62"/>
       <c r="I20" s="62"/>
@@ -1912,7 +1897,6 @@
       <c r="E21" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="73"/>
       <c r="G21" s="54"/>
       <c r="H21" s="62"/>
       <c r="I21" s="62"/>
@@ -1928,7 +1912,6 @@
       <c r="E22" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="73"/>
       <c r="G22" s="54"/>
       <c r="H22" s="62"/>
       <c r="I22" s="62"/>
@@ -1944,7 +1927,6 @@
       <c r="E23" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="73"/>
       <c r="G23" s="54"/>
       <c r="H23" s="62"/>
       <c r="I23" s="62"/>
@@ -1960,7 +1942,6 @@
       <c r="E24" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="73"/>
       <c r="G24" s="54"/>
       <c r="H24" s="62"/>
       <c r="I24" s="62"/>
@@ -1976,7 +1957,6 @@
       <c r="E25" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="73"/>
       <c r="G25" s="54"/>
       <c r="H25" s="62"/>
       <c r="I25" s="62"/>
@@ -1992,7 +1972,6 @@
       <c r="E26" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="73"/>
       <c r="G26" s="54"/>
       <c r="H26" s="62"/>
       <c r="I26" s="62"/>
@@ -2006,7 +1985,7 @@
       <c r="C27" s="49"/>
       <c r="D27" s="50"/>
       <c r="E27" s="55"/>
-      <c r="F27" s="74"/>
+      <c r="F27" s="73"/>
       <c r="G27" s="56"/>
       <c r="H27" s="64"/>
       <c r="I27" s="64"/>
@@ -2043,7 +2022,6 @@
       <c r="E29" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="F29" s="73"/>
       <c r="G29" s="54"/>
       <c r="H29" s="62"/>
       <c r="I29" s="62"/>
@@ -2059,7 +2037,6 @@
       <c r="E30" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="F30" s="73"/>
       <c r="G30" s="54"/>
       <c r="H30" s="62"/>
       <c r="I30" s="62"/>
@@ -2075,7 +2052,6 @@
       <c r="E31" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="F31" s="73"/>
       <c r="G31" s="54"/>
       <c r="H31" s="62"/>
       <c r="I31" s="62"/>
@@ -2091,7 +2067,6 @@
       <c r="E32" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="F32" s="73"/>
       <c r="G32" s="54"/>
       <c r="H32" s="62"/>
       <c r="I32" s="62"/>
@@ -2107,7 +2082,6 @@
       <c r="E33" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="F33" s="73"/>
       <c r="G33" s="54"/>
       <c r="H33" s="62"/>
       <c r="I33" s="62"/>
@@ -2123,7 +2097,6 @@
       <c r="E34" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="F34" s="73"/>
       <c r="G34" s="54"/>
       <c r="H34" s="62"/>
       <c r="I34" s="62"/>
@@ -2139,7 +2112,6 @@
       <c r="E35" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="F35" s="73"/>
       <c r="G35" s="54"/>
       <c r="H35" s="62"/>
       <c r="I35" s="62"/>
@@ -2155,7 +2127,6 @@
       <c r="E36" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="F36" s="73"/>
       <c r="G36" s="54"/>
       <c r="H36" s="62"/>
       <c r="I36" s="62"/>
@@ -2169,7 +2140,6 @@
       <c r="C37" s="47"/>
       <c r="D37" s="48"/>
       <c r="E37" s="53"/>
-      <c r="F37" s="73"/>
       <c r="G37" s="54"/>
       <c r="H37" s="62"/>
       <c r="I37" s="62"/>
@@ -2183,7 +2153,6 @@
       <c r="C38" s="47"/>
       <c r="D38" s="48"/>
       <c r="E38" s="53"/>
-      <c r="F38" s="73"/>
       <c r="G38" s="54"/>
       <c r="H38" s="62"/>
       <c r="I38" s="62"/>
@@ -2197,7 +2166,7 @@
       <c r="C39" s="49"/>
       <c r="D39" s="50"/>
       <c r="E39" s="55"/>
-      <c r="F39" s="74"/>
+      <c r="F39" s="73"/>
       <c r="G39" s="56"/>
       <c r="H39" s="64"/>
       <c r="I39" s="64"/>
@@ -2234,7 +2203,6 @@
       <c r="E41" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="F41" s="73"/>
       <c r="G41" s="54"/>
       <c r="H41" s="62"/>
       <c r="I41" s="62"/>
@@ -2250,7 +2218,6 @@
       <c r="E42" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="F42" s="73"/>
       <c r="G42" s="54"/>
       <c r="H42" s="62"/>
       <c r="I42" s="62"/>
@@ -2266,7 +2233,6 @@
       <c r="E43" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="F43" s="73"/>
       <c r="G43" s="54"/>
       <c r="H43" s="62"/>
       <c r="I43" s="62"/>
@@ -2282,7 +2248,6 @@
       <c r="E44" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="F44" s="73"/>
       <c r="G44" s="54"/>
       <c r="H44" s="62"/>
       <c r="I44" s="62"/>
@@ -2296,7 +2261,6 @@
       <c r="C45" s="47"/>
       <c r="D45" s="48"/>
       <c r="E45" s="53"/>
-      <c r="F45" s="73"/>
       <c r="G45" s="54"/>
       <c r="H45" s="62"/>
       <c r="I45" s="62"/>
@@ -2310,7 +2274,6 @@
       <c r="C46" s="47"/>
       <c r="D46" s="48"/>
       <c r="E46" s="53"/>
-      <c r="F46" s="73"/>
       <c r="G46" s="54"/>
       <c r="H46" s="62"/>
       <c r="I46" s="62"/>
@@ -2324,7 +2287,6 @@
       <c r="C47" s="47"/>
       <c r="D47" s="48"/>
       <c r="E47" s="53"/>
-      <c r="F47" s="73"/>
       <c r="G47" s="54"/>
       <c r="H47" s="62"/>
       <c r="I47" s="62"/>
@@ -2338,7 +2300,6 @@
       <c r="C48" s="47"/>
       <c r="D48" s="48"/>
       <c r="E48" s="53"/>
-      <c r="F48" s="73"/>
       <c r="G48" s="54"/>
       <c r="H48" s="62"/>
       <c r="I48" s="62"/>
@@ -2352,7 +2313,6 @@
       <c r="C49" s="47"/>
       <c r="D49" s="48"/>
       <c r="E49" s="53"/>
-      <c r="F49" s="73"/>
       <c r="G49" s="54"/>
       <c r="H49" s="62"/>
       <c r="I49" s="62"/>
@@ -2366,7 +2326,6 @@
       <c r="C50" s="47"/>
       <c r="D50" s="48"/>
       <c r="E50" s="53"/>
-      <c r="F50" s="73"/>
       <c r="G50" s="54"/>
       <c r="H50" s="62"/>
       <c r="I50" s="62"/>
@@ -2380,7 +2339,7 @@
       <c r="C51" s="49"/>
       <c r="D51" s="50"/>
       <c r="E51" s="55"/>
-      <c r="F51" s="74"/>
+      <c r="F51" s="73"/>
       <c r="G51" s="56"/>
       <c r="H51" s="64"/>
       <c r="I51" s="64"/>
@@ -2417,7 +2376,6 @@
       <c r="E53" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="F53" s="73"/>
       <c r="G53" s="54"/>
       <c r="H53" s="62"/>
       <c r="I53" s="62"/>
@@ -2431,7 +2389,6 @@
       <c r="C54" s="47"/>
       <c r="D54" s="48"/>
       <c r="E54" s="53"/>
-      <c r="F54" s="73"/>
       <c r="G54" s="54"/>
       <c r="H54" s="62"/>
       <c r="I54" s="62"/>
@@ -2445,7 +2402,6 @@
       <c r="C55" s="47"/>
       <c r="D55" s="48"/>
       <c r="E55" s="53"/>
-      <c r="F55" s="73"/>
       <c r="G55" s="54"/>
       <c r="H55" s="62"/>
       <c r="I55" s="62"/>
@@ -2459,7 +2415,6 @@
       <c r="C56" s="47"/>
       <c r="D56" s="48"/>
       <c r="E56" s="53"/>
-      <c r="F56" s="73"/>
       <c r="G56" s="54"/>
       <c r="H56" s="62"/>
       <c r="I56" s="62"/>
@@ -2473,7 +2428,6 @@
       <c r="C57" s="47"/>
       <c r="D57" s="48"/>
       <c r="E57" s="53"/>
-      <c r="F57" s="73"/>
       <c r="G57" s="54"/>
       <c r="H57" s="62"/>
       <c r="I57" s="62"/>
@@ -2487,7 +2441,6 @@
       <c r="C58" s="47"/>
       <c r="D58" s="48"/>
       <c r="E58" s="53"/>
-      <c r="F58" s="73"/>
       <c r="G58" s="54"/>
       <c r="H58" s="62"/>
       <c r="I58" s="62"/>
@@ -2501,7 +2454,6 @@
       <c r="C59" s="47"/>
       <c r="D59" s="48"/>
       <c r="E59" s="53"/>
-      <c r="F59" s="73"/>
       <c r="G59" s="54"/>
       <c r="H59" s="62"/>
       <c r="I59" s="62"/>
@@ -2515,7 +2467,6 @@
       <c r="C60" s="47"/>
       <c r="D60" s="48"/>
       <c r="E60" s="53"/>
-      <c r="F60" s="73"/>
       <c r="G60" s="54"/>
       <c r="H60" s="62"/>
       <c r="I60" s="62"/>
@@ -2529,7 +2480,6 @@
       <c r="C61" s="47"/>
       <c r="D61" s="48"/>
       <c r="E61" s="53"/>
-      <c r="F61" s="73"/>
       <c r="G61" s="54"/>
       <c r="H61" s="62"/>
       <c r="I61" s="62"/>
@@ -2543,7 +2493,6 @@
       <c r="C62" s="47"/>
       <c r="D62" s="48"/>
       <c r="E62" s="53"/>
-      <c r="F62" s="73"/>
       <c r="G62" s="54"/>
       <c r="H62" s="62"/>
       <c r="I62" s="62"/>
@@ -2557,7 +2506,7 @@
       <c r="C63" s="49"/>
       <c r="D63" s="50"/>
       <c r="E63" s="55"/>
-      <c r="F63" s="74"/>
+      <c r="F63" s="73"/>
       <c r="G63" s="56"/>
       <c r="H63" s="64"/>
       <c r="I63" s="64"/>
@@ -2588,7 +2537,6 @@
       <c r="C65" s="47"/>
       <c r="D65" s="48"/>
       <c r="E65" s="53"/>
-      <c r="F65" s="73"/>
       <c r="G65" s="54"/>
       <c r="H65" s="62"/>
       <c r="I65" s="62"/>
@@ -2602,7 +2550,6 @@
       <c r="C66" s="47"/>
       <c r="D66" s="48"/>
       <c r="E66" s="53"/>
-      <c r="F66" s="73"/>
       <c r="G66" s="54"/>
       <c r="H66" s="62"/>
       <c r="I66" s="62"/>
@@ -2616,7 +2563,6 @@
       <c r="C67" s="47"/>
       <c r="D67" s="48"/>
       <c r="E67" s="53"/>
-      <c r="F67" s="73"/>
       <c r="G67" s="54"/>
       <c r="H67" s="62"/>
       <c r="I67" s="62"/>
@@ -2630,7 +2576,6 @@
       <c r="C68" s="47"/>
       <c r="D68" s="48"/>
       <c r="E68" s="53"/>
-      <c r="F68" s="73"/>
       <c r="G68" s="54"/>
       <c r="H68" s="62"/>
       <c r="I68" s="62"/>
@@ -2644,7 +2589,6 @@
       <c r="C69" s="47"/>
       <c r="D69" s="48"/>
       <c r="E69" s="53"/>
-      <c r="F69" s="73"/>
       <c r="G69" s="54"/>
       <c r="H69" s="62"/>
       <c r="I69" s="62"/>
@@ -2658,7 +2602,6 @@
       <c r="C70" s="47"/>
       <c r="D70" s="48"/>
       <c r="E70" s="53"/>
-      <c r="F70" s="73"/>
       <c r="G70" s="54"/>
       <c r="H70" s="62"/>
       <c r="I70" s="62"/>
@@ -2672,7 +2615,6 @@
       <c r="C71" s="47"/>
       <c r="D71" s="48"/>
       <c r="E71" s="53"/>
-      <c r="F71" s="73"/>
       <c r="G71" s="54"/>
       <c r="H71" s="62"/>
       <c r="I71" s="62"/>
@@ -2686,7 +2628,6 @@
       <c r="C72" s="47"/>
       <c r="D72" s="48"/>
       <c r="E72" s="53"/>
-      <c r="F72" s="73"/>
       <c r="G72" s="54"/>
       <c r="H72" s="62"/>
       <c r="I72" s="62"/>
@@ -2700,7 +2641,6 @@
       <c r="C73" s="47"/>
       <c r="D73" s="48"/>
       <c r="E73" s="53"/>
-      <c r="F73" s="73"/>
       <c r="G73" s="54"/>
       <c r="H73" s="62"/>
       <c r="I73" s="62"/>
@@ -2714,7 +2654,6 @@
       <c r="C74" s="47"/>
       <c r="D74" s="48"/>
       <c r="E74" s="53"/>
-      <c r="F74" s="73"/>
       <c r="G74" s="54"/>
       <c r="H74" s="62"/>
       <c r="I74" s="62"/>
@@ -2728,7 +2667,7 @@
       <c r="C75" s="49"/>
       <c r="D75" s="50"/>
       <c r="E75" s="55"/>
-      <c r="F75" s="74"/>
+      <c r="F75" s="73"/>
       <c r="G75" s="56"/>
       <c r="H75" s="64"/>
       <c r="I75" s="64"/>
@@ -2759,7 +2698,6 @@
       <c r="C77" s="47"/>
       <c r="D77" s="48"/>
       <c r="E77" s="53"/>
-      <c r="F77" s="73"/>
       <c r="G77" s="54"/>
       <c r="H77" s="62"/>
       <c r="I77" s="62"/>
@@ -2773,7 +2711,6 @@
       <c r="C78" s="47"/>
       <c r="D78" s="48"/>
       <c r="E78" s="53"/>
-      <c r="F78" s="73"/>
       <c r="G78" s="54"/>
       <c r="H78" s="62"/>
       <c r="I78" s="62"/>
@@ -2787,7 +2724,6 @@
       <c r="C79" s="47"/>
       <c r="D79" s="48"/>
       <c r="E79" s="53"/>
-      <c r="F79" s="73"/>
       <c r="G79" s="54"/>
       <c r="H79" s="62"/>
       <c r="I79" s="62"/>
@@ -2801,7 +2737,6 @@
       <c r="C80" s="47"/>
       <c r="D80" s="48"/>
       <c r="E80" s="53"/>
-      <c r="F80" s="73"/>
       <c r="G80" s="54"/>
       <c r="H80" s="62"/>
       <c r="I80" s="62"/>
@@ -2815,7 +2750,6 @@
       <c r="C81" s="47"/>
       <c r="D81" s="48"/>
       <c r="E81" s="53"/>
-      <c r="F81" s="73"/>
       <c r="G81" s="54"/>
       <c r="H81" s="62"/>
       <c r="I81" s="62"/>
@@ -2829,7 +2763,6 @@
       <c r="C82" s="47"/>
       <c r="D82" s="48"/>
       <c r="E82" s="53"/>
-      <c r="F82" s="73"/>
       <c r="G82" s="54"/>
       <c r="H82" s="62"/>
       <c r="I82" s="62"/>
@@ -2843,7 +2776,6 @@
       <c r="C83" s="47"/>
       <c r="D83" s="48"/>
       <c r="E83" s="53"/>
-      <c r="F83" s="73"/>
       <c r="G83" s="54"/>
       <c r="H83" s="62"/>
       <c r="I83" s="62"/>
@@ -2857,7 +2789,6 @@
       <c r="C84" s="47"/>
       <c r="D84" s="48"/>
       <c r="E84" s="53"/>
-      <c r="F84" s="73"/>
       <c r="G84" s="54"/>
       <c r="H84" s="62"/>
       <c r="I84" s="62"/>
@@ -2871,7 +2802,6 @@
       <c r="C85" s="47"/>
       <c r="D85" s="48"/>
       <c r="E85" s="53"/>
-      <c r="F85" s="73"/>
       <c r="G85" s="54"/>
       <c r="H85" s="62"/>
       <c r="I85" s="62"/>
@@ -2885,7 +2815,6 @@
       <c r="C86" s="47"/>
       <c r="D86" s="48"/>
       <c r="E86" s="53"/>
-      <c r="F86" s="73"/>
       <c r="G86" s="54"/>
       <c r="H86" s="62"/>
       <c r="I86" s="62"/>
@@ -2899,7 +2828,7 @@
       <c r="C87" s="49"/>
       <c r="D87" s="50"/>
       <c r="E87" s="55"/>
-      <c r="F87" s="74"/>
+      <c r="F87" s="73"/>
       <c r="G87" s="56"/>
       <c r="H87" s="64"/>
       <c r="I87" s="64"/>
@@ -2930,7 +2859,6 @@
       <c r="C89" s="47"/>
       <c r="D89" s="48"/>
       <c r="E89" s="53"/>
-      <c r="F89" s="73"/>
       <c r="G89" s="54"/>
       <c r="H89" s="62"/>
       <c r="I89" s="62"/>
@@ -2944,7 +2872,6 @@
       <c r="C90" s="47"/>
       <c r="D90" s="48"/>
       <c r="E90" s="53"/>
-      <c r="F90" s="73"/>
       <c r="G90" s="54"/>
       <c r="H90" s="62"/>
       <c r="I90" s="62"/>
@@ -2958,7 +2885,6 @@
       <c r="C91" s="47"/>
       <c r="D91" s="48"/>
       <c r="E91" s="53"/>
-      <c r="F91" s="73"/>
       <c r="G91" s="54"/>
       <c r="H91" s="62"/>
       <c r="I91" s="62"/>
@@ -2972,7 +2898,6 @@
       <c r="C92" s="47"/>
       <c r="D92" s="48"/>
       <c r="E92" s="53"/>
-      <c r="F92" s="73"/>
       <c r="G92" s="54"/>
       <c r="H92" s="62"/>
       <c r="I92" s="62"/>
@@ -2986,7 +2911,6 @@
       <c r="C93" s="47"/>
       <c r="D93" s="48"/>
       <c r="E93" s="53"/>
-      <c r="F93" s="73"/>
       <c r="G93" s="54"/>
       <c r="H93" s="62"/>
       <c r="I93" s="62"/>
@@ -3000,7 +2924,6 @@
       <c r="C94" s="47"/>
       <c r="D94" s="48"/>
       <c r="E94" s="53"/>
-      <c r="F94" s="73"/>
       <c r="G94" s="54"/>
       <c r="H94" s="62"/>
       <c r="I94" s="62"/>
@@ -3014,7 +2937,6 @@
       <c r="C95" s="47"/>
       <c r="D95" s="48"/>
       <c r="E95" s="53"/>
-      <c r="F95" s="73"/>
       <c r="G95" s="54"/>
       <c r="H95" s="62"/>
       <c r="I95" s="62"/>
@@ -3028,7 +2950,6 @@
       <c r="C96" s="47"/>
       <c r="D96" s="48"/>
       <c r="E96" s="53"/>
-      <c r="F96" s="73"/>
       <c r="G96" s="54"/>
       <c r="H96" s="62"/>
       <c r="I96" s="62"/>
@@ -3042,7 +2963,6 @@
       <c r="C97" s="47"/>
       <c r="D97" s="48"/>
       <c r="E97" s="53"/>
-      <c r="F97" s="73"/>
       <c r="G97" s="54"/>
       <c r="H97" s="62"/>
       <c r="I97" s="62"/>
@@ -3056,7 +2976,6 @@
       <c r="C98" s="47"/>
       <c r="D98" s="48"/>
       <c r="E98" s="53"/>
-      <c r="F98" s="73"/>
       <c r="G98" s="54"/>
       <c r="H98" s="62"/>
       <c r="I98" s="62"/>
@@ -3070,7 +2989,7 @@
       <c r="C99" s="49"/>
       <c r="D99" s="50"/>
       <c r="E99" s="55"/>
-      <c r="F99" s="74"/>
+      <c r="F99" s="73"/>
       <c r="G99" s="56"/>
       <c r="H99" s="64"/>
       <c r="I99" s="64"/>
@@ -3101,7 +3020,6 @@
       <c r="C101" s="47"/>
       <c r="D101" s="48"/>
       <c r="E101" s="53"/>
-      <c r="F101" s="73"/>
       <c r="G101" s="54"/>
       <c r="H101" s="62"/>
       <c r="I101" s="62"/>
@@ -3115,7 +3033,6 @@
       <c r="C102" s="47"/>
       <c r="D102" s="48"/>
       <c r="E102" s="53"/>
-      <c r="F102" s="73"/>
       <c r="G102" s="54"/>
       <c r="H102" s="62"/>
       <c r="I102" s="62"/>
@@ -3129,7 +3046,6 @@
       <c r="C103" s="47"/>
       <c r="D103" s="48"/>
       <c r="E103" s="53"/>
-      <c r="F103" s="73"/>
       <c r="G103" s="54"/>
       <c r="H103" s="62"/>
       <c r="I103" s="62"/>
@@ -3143,7 +3059,6 @@
       <c r="C104" s="47"/>
       <c r="D104" s="48"/>
       <c r="E104" s="53"/>
-      <c r="F104" s="73"/>
       <c r="G104" s="54"/>
       <c r="H104" s="62"/>
       <c r="I104" s="62"/>
@@ -3157,7 +3072,6 @@
       <c r="C105" s="47"/>
       <c r="D105" s="48"/>
       <c r="E105" s="53"/>
-      <c r="F105" s="73"/>
       <c r="G105" s="54"/>
       <c r="H105" s="62"/>
       <c r="I105" s="62"/>
@@ -3171,7 +3085,6 @@
       <c r="C106" s="47"/>
       <c r="D106" s="48"/>
       <c r="E106" s="53"/>
-      <c r="F106" s="73"/>
       <c r="G106" s="54"/>
       <c r="H106" s="62"/>
       <c r="I106" s="62"/>
@@ -3185,7 +3098,6 @@
       <c r="C107" s="47"/>
       <c r="D107" s="48"/>
       <c r="E107" s="53"/>
-      <c r="F107" s="73"/>
       <c r="G107" s="54"/>
       <c r="H107" s="62"/>
       <c r="I107" s="62"/>
@@ -3199,7 +3111,6 @@
       <c r="C108" s="47"/>
       <c r="D108" s="48"/>
       <c r="E108" s="53"/>
-      <c r="F108" s="73"/>
       <c r="G108" s="54"/>
       <c r="H108" s="62"/>
       <c r="I108" s="62"/>
@@ -3213,7 +3124,6 @@
       <c r="C109" s="47"/>
       <c r="D109" s="48"/>
       <c r="E109" s="53"/>
-      <c r="F109" s="73"/>
       <c r="G109" s="54"/>
       <c r="H109" s="62"/>
       <c r="I109" s="62"/>
@@ -3227,7 +3137,6 @@
       <c r="C110" s="47"/>
       <c r="D110" s="48"/>
       <c r="E110" s="53"/>
-      <c r="F110" s="73"/>
       <c r="G110" s="54"/>
       <c r="H110" s="62"/>
       <c r="I110" s="62"/>
@@ -3241,7 +3150,7 @@
       <c r="C111" s="49"/>
       <c r="D111" s="50"/>
       <c r="E111" s="55"/>
-      <c r="F111" s="74"/>
+      <c r="F111" s="73"/>
       <c r="G111" s="56"/>
       <c r="H111" s="64"/>
       <c r="I111" s="64"/>
@@ -3261,7 +3170,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
@@ -3586,7 +3498,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD9E794-3F95-4829-93BD-F54107CA67A8}">
-  <dimension ref="B2:E46"/>
+  <dimension ref="B1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -3598,8 +3510,14 @@
     <col min="3" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:5">
+      <c r="B1">
+        <f>MAX(B4:B46)</f>
+        <v>32</v>
+      </c>
+    </row>
     <row r="2" spans="2:5">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="74" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="68" t="s">
@@ -3609,7 +3527,7 @@
       <c r="E2" s="71"/>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="76"/>
+      <c r="B3" s="75"/>
       <c r="C3" s="67" t="s">
         <v>27</v>
       </c>
@@ -4243,7 +4161,7 @@
       <c r="B2" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="76" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="71"/>

--- a/01_設計書/設計書.xlsx
+++ b/01_設計書/設計書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\IdeaProjects\game\01_設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEDB3DD-3E5D-4BA0-B4AC-B373384D1D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A60FBDA-C87E-46EB-8056-DFF605453207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="98">
   <si>
     <t>VERSION</t>
     <phoneticPr fontId="1"/>
@@ -1407,7 +1407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5EDA553-5D05-4A2A-B821-81F4F4038757}">
   <dimension ref="B2:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -4135,11 +4135,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02DC9FDE-8ECB-451B-8C21-A55887DB9F01}">
   <dimension ref="B1:K48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4348,7 +4348,7 @@
       <c r="F10" s="29"/>
       <c r="G10" s="29"/>
       <c r="H10" s="29" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I10" s="29"/>
       <c r="J10" s="29"/>
@@ -4375,7 +4375,9 @@
       </c>
       <c r="I11" s="29"/>
       <c r="J11" s="29"/>
-      <c r="K11" s="8"/>
+      <c r="K11" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="8">
@@ -4392,11 +4394,13 @@
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
       <c r="H12" s="29" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I12" s="29"/>
       <c r="J12" s="29"/>
-      <c r="K12" s="8"/>
+      <c r="K12" s="8" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="8">
